--- a/Client/Assets/Editor/Excels/EndInfo.xlsx
+++ b/Client/Assets/Editor/Excels/EndInfo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4216B6-17AA-47D4-BED2-ABC90CBB517B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>从Assets/Resources下一级开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,13 +95,17 @@
   </si>
   <si>
     <t>各自的烦恼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/Ending_pic05</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,14 +457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -472,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -522,7 +529,9 @@
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -617,5 +626,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Assets/Editor/Excels/EndInfo.xlsx
+++ b/Client/Assets/Editor/Excels/EndInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4216B6-17AA-47D4-BED2-ABC90CBB517B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C68519-EF83-439D-A81B-B78BBE7CE606}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>从Assets/Resources下一级开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>Arts/ImagesNew/Ending_pic05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/Ending_pic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +497,9 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -502,7 +508,9 @@
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -511,7 +519,9 @@
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -520,7 +530,9 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -540,7 +552,9 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -549,7 +563,9 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -558,7 +574,9 @@
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -567,7 +585,9 @@
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -576,7 +596,9 @@
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -585,7 +607,9 @@
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -594,7 +618,9 @@
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -603,7 +629,9 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -612,7 +640,9 @@
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -621,7 +651,9 @@
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Client/Assets/Editor/Excels/EndInfo.xlsx
+++ b/Client/Assets/Editor/Excels/EndInfo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C68519-EF83-439D-A81B-B78BBE7CE606}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC94190F-BD77-4077-BD4B-3329EE4C9542}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>从Assets/Resources下一级开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Arts/ImagesNew/Ending_pic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/Ending_pic04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/Ending_pic06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts/ImagesNew/Ending_pic09</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -531,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -553,7 +567,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -586,7 +600,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
